--- a/db_concept.xlsx
+++ b/db_concept.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paus0\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Arbeit\PnP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D74B8FD6-B0DF-4C7C-8854-8B1A1476B31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1822CD-A01E-4CA3-B3E1-4F744EF6CA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBD8CCF3-16A4-48B9-9845-0E815990ADD4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="1-3NF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="65">
   <si>
     <t>name (var char)</t>
   </si>
@@ -182,13 +182,55 @@
     <t>2NF</t>
   </si>
   <si>
-    <t>a_skillset_id</t>
-  </si>
-  <si>
-    <t>k_skillset_id</t>
-  </si>
-  <si>
-    <t>s_skillset_id</t>
+    <t>a_skillset_id (PK)</t>
+  </si>
+  <si>
+    <t>k_skillset_id (PK)</t>
+  </si>
+  <si>
+    <t>s_skillset_id (PK)</t>
+  </si>
+  <si>
+    <t>a_skillset_id (FK)</t>
+  </si>
+  <si>
+    <t>k_skillset_id (FK)</t>
+  </si>
+  <si>
+    <t>s_skillset_id (FK)</t>
+  </si>
+  <si>
+    <t>actionskill 1 (var char)</t>
+  </si>
+  <si>
+    <t>action skill 2 (var char)</t>
+  </si>
+  <si>
+    <t>action skill 3 … (var char)</t>
+  </si>
+  <si>
+    <t>knowledge skill 1 (var char)</t>
+  </si>
+  <si>
+    <t>knowledge skill 2 (var char)</t>
+  </si>
+  <si>
+    <t>knowledge skill 3 … (var char)</t>
+  </si>
+  <si>
+    <t>social skill 1 (var char)</t>
+  </si>
+  <si>
+    <t>social skill 2 (var char)</t>
+  </si>
+  <si>
+    <t>social skill 3 … (var char)</t>
+  </si>
+  <si>
+    <t>item bag (var char)</t>
+  </si>
+  <si>
+    <t>notes (var char)</t>
   </si>
 </sst>
 </file>
@@ -886,29 +928,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4E536C-C7B3-4A99-BF9E-E70321D1ECA7}">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="21.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="16" width="21.42578125" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" x14ac:dyDescent="0.25">
@@ -1108,12 +1150,12 @@
         <v>46</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="N11" s="29" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1165,13 +1207,13 @@
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -1199,13 +1241,13 @@
     </row>
     <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="26" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -1233,13 +1275,13 @@
     </row>
     <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="28" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -1306,13 +1348,13 @@
         <v>6</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L38" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M38" s="28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N38" s="29" t="s">
         <v>16</v>
@@ -1380,13 +1422,13 @@
         <v>48</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -1421,13 +1463,13 @@
         <v>49</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -1462,13 +1504,13 @@
         <v>50</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
